--- a/Main Code/Lecture Hours.xlsx
+++ b/Main Code/Lecture Hours.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/TestFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0025646-E781-D94E-B622-B5A70174069F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B9EF0-C02B-7740-870F-97F1002EECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{2398140F-2DEE-F84D-A29C-324A3994A2A3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{2398140F-2DEE-F84D-A29C-324A3994A2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C5806-2C70-5B4D-8684-34E6A289F494}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,7 +527,7 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">

--- a/Main Code/Lecture Hours.xlsx
+++ b/Main Code/Lecture Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B9EF0-C02B-7740-870F-97F1002EECAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7B046-8821-8641-873F-81E30D1DF708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{2398140F-2DEE-F84D-A29C-324A3994A2A3}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Main Code/Lecture Hours.xlsx
+++ b/Main Code/Lecture Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7B046-8821-8641-873F-81E30D1DF708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB166694-D871-CF4F-A998-3D357FABDE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{2398140F-2DEE-F84D-A29C-324A3994A2A3}"/>
   </bookViews>
@@ -33,49 +33,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Analogue Electronics</t>
-  </si>
-  <si>
-    <t>Communications Networks 1</t>
-  </si>
-  <si>
-    <t>Computer Architecture 1</t>
-  </si>
-  <si>
-    <t>Digital Electronic Design</t>
-  </si>
-  <si>
-    <t>Electrical Systems</t>
-  </si>
-  <si>
-    <t>Intro to Elec Energy Systems 1</t>
-  </si>
-  <si>
-    <t>Introduction to Control</t>
-  </si>
-  <si>
-    <t>Mathematics 2</t>
-  </si>
-  <si>
-    <t>Mathematics 3</t>
-  </si>
-  <si>
-    <t>Programming 1</t>
-  </si>
-  <si>
-    <t>Signals and Systems</t>
-  </si>
-  <si>
-    <t>Software Development</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>Subject 6</t>
+  </si>
+  <si>
+    <t>Subject 7</t>
+  </si>
+  <si>
+    <t>Subject 8</t>
+  </si>
+  <si>
+    <t>Subject 9</t>
+  </si>
+  <si>
+    <t>Subject 10</t>
+  </si>
+  <si>
+    <t>Subject 11</t>
+  </si>
+  <si>
+    <t>Subject 12</t>
+  </si>
+  <si>
+    <t>Subject 13</t>
+  </si>
+  <si>
+    <t>Subject 14</t>
+  </si>
+  <si>
+    <t>Subject 15</t>
+  </si>
+  <si>
+    <t>Subject 16</t>
+  </si>
+  <si>
+    <t>Subject 17</t>
+  </si>
+  <si>
+    <t>Subject 18</t>
+  </si>
+  <si>
+    <t>Subject 19</t>
+  </si>
+  <si>
+    <t>Subject 20</t>
+  </si>
+  <si>
+    <t>Subject 21</t>
+  </si>
+  <si>
+    <t>Subject 22</t>
+  </si>
+  <si>
+    <t>Subject 23</t>
+  </si>
+  <si>
+    <t>Subject 24</t>
+  </si>
+  <si>
+    <t>Subject 25</t>
+  </si>
+  <si>
+    <t>Subject 26</t>
+  </si>
+  <si>
+    <t>Subject 27</t>
+  </si>
+  <si>
+    <t>Subject 28</t>
+  </si>
+  <si>
+    <t>Subject 29</t>
+  </si>
+  <si>
+    <t>Subject 30</t>
+  </si>
+  <si>
+    <t>Subject 31</t>
+  </si>
+  <si>
+    <t>Subject 32</t>
+  </si>
+  <si>
+    <t>Subject 33</t>
+  </si>
+  <si>
+    <t>Subject 34</t>
+  </si>
+  <si>
+    <t>Subject 35</t>
+  </si>
+  <si>
+    <t>Subject 36</t>
+  </si>
+  <si>
+    <t>Subject 37</t>
+  </si>
+  <si>
+    <t>Subject 38</t>
+  </si>
+  <si>
+    <t>Subject 39</t>
+  </si>
+  <si>
+    <t>Subject 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +170,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,10 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C5806-2C70-5B4D-8684-34E6A289F494}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,124 +540,252 @@
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1"/>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Main Code/Lecture Hours.xlsx
+++ b/Main Code/Lecture Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/AutoTimetable/Main Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB166694-D871-CF4F-A998-3D357FABDE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346C2DEF-5A17-B14F-B37F-47D64835511D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{2398140F-2DEE-F84D-A29C-324A3994A2A3}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C5806-2C70-5B4D-8684-34E6A289F494}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,124 +664,124 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AM2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
